--- a/files/hackedorchestra_materiaallijst.xlsx
+++ b/files/hackedorchestra_materiaallijst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Github-repos/hackedorchestra_hdsc23/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759663F-8A08-F246-9736-72A3FFC2AB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A195FA1B-AA31-2349-9F07-3AC2203F1D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21020" yWindow="3780" windowWidth="29360" windowHeight="21700" xr2:uid="{C66004B7-CF64-2C46-8B95-3A92A2B69F52}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>conrad</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Tape</t>
+  </si>
+  <si>
+    <t>2 additional amps</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4899EE15-2988-1147-84D0-31EE1540E5CB}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,14 +1003,14 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>5.34</v>
       </c>
       <c r="F25" s="6">
         <f>E25*D25</f>
-        <v>5.34</v>
+        <v>10.68</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -1039,14 +1042,14 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>3.5</v>
       </c>
       <c r="F27" s="6">
         <f>E27*D27</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>23</v>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="F29" s="5">
         <f>SUM(F3:F27)</f>
-        <v>139.39000000000001</v>
+        <v>148.23000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1207,6 +1210,14 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
